--- a/data/long_bre/P23_3-Edad-long_bre.xlsx
+++ b/data/long_bre/P23_3-Edad-long_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,8 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,12 +538,14 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +562,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -567,6 +588,8 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -576,27 +599,37 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>-4,65</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,99%</t>
+          <t>-6,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>-13,02%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>12,4%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-21,97%</t>
         </is>
       </c>
     </row>
@@ -609,22 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,15; 11,27</t>
+          <t>-19,33; 9,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 12,66</t>
+          <t>-10,44; 13,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-37,53; 49,18</t>
+          <t>-23,17; 8,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-34,65; 84,65</t>
+          <t>-44,15; 33,81</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-35,64; 91,79</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-59,7; 43,14</t>
         </is>
       </c>
     </row>
@@ -632,27 +675,37 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,56%</t>
+          <t>-8,65</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,61%</t>
+          <t>-1,96%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-0,71%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-17,79%</t>
         </is>
       </c>
     </row>
@@ -665,22 +718,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,98; 12,0</t>
+          <t>-14,53; 14,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,87; 13,35</t>
+          <t>-15,14; 13,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-32,3; 32,66</t>
+          <t>-25,18; 10,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,61; 26,69</t>
+          <t>-29,09; 43,07</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-22,54; 26,66</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-44,25; 25,49</t>
         </is>
       </c>
     </row>
@@ -688,27 +751,37 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,88</t>
+          <t>5,51</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>14,95</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,59%</t>
+          <t>27,14%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-11,0%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>65,84%</t>
         </is>
       </c>
     </row>
@@ -721,54 +794,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 15,91</t>
+          <t>-6,49; 18,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,14; 9,37</t>
+          <t>-13,14; 7,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-31,31; 96,22</t>
+          <t>-1,99; 30,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-45,02; 69,02</t>
+          <t>-25,82; 124,76</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-49,22; 54,16</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-8,87; 247,85</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-7,9</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,35%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-22,33%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -781,50 +870,74 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 12,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-22,56; 3,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-34,79; 53,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-50,13; 11,73</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,65</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>-9,51</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>15,91%</t>
+          <t>5,73</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>3,37%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-26,21%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>25,68%</t>
         </is>
       </c>
     </row>
@@ -837,22 +950,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 18,83</t>
+          <t>-11,65; 13,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 14,3</t>
+          <t>-25,59; 1,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,58; 70,43</t>
+          <t>-7,66; 18,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-19,94; 44,73</t>
+          <t>-32,76; 64,05</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-52,28; 7,51</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-24,88; 128,11</t>
         </is>
       </c>
     </row>
@@ -860,27 +983,37 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-5,23</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,01</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-15,58%</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>18,92%</t>
+          <t>11,9%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>11,91%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>6,7%</t>
         </is>
       </c>
     </row>
@@ -893,54 +1026,70 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,43; 7,57</t>
+          <t>-10,05; 18,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 15,44</t>
+          <t>-8,16; 17,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-48,6; 31,16</t>
+          <t>-19,57; 20,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-20,24; 76,83</t>
+          <t>-22,65; 65,96</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-18,85; 60,74</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-35,32; 72,38</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>-5,37</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,12%</t>
+          <t>-8,51</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,62%</t>
+          <t>-15,65%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>19,12%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-23,49%</t>
         </is>
       </c>
     </row>
@@ -953,22 +1102,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 9,54</t>
+          <t>-24,43; 7,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 8,46</t>
+          <t>-6,22; 15,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-27,88; 33,97</t>
+          <t>-26,61; 7,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-27,11; 35,49</t>
+          <t>-53,81; 27,69</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-19,54; 82,22</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-55,68; 28,62</t>
         </is>
       </c>
     </row>
@@ -976,27 +1135,37 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-3,43</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-8,72%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,50 +1178,74 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,77; 6,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 12,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-35,61; 19,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-14,85; 36,8</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>4,85</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>18,58%</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-5,93%</t>
+          <t>-6,51%</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-3,6%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3,23%</t>
         </is>
       </c>
     </row>
@@ -1065,54 +1258,70 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 15,06</t>
+          <t>-12,13; 8,19</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,99; 6,91</t>
+          <t>-10,36; 7,59</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-15,04; 72,33</t>
+          <t>-10,67; 10,83</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-34,21; 27,69</t>
+          <t>-29,58; 29,35</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-28,69; 30,22</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-25,18; 39,06</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-9,71</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-27,31%</t>
+          <t>5,81</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>-7,13%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>5,01%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>17,92%</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1334,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-19,44; -0,48</t>
+          <t>-16,34; 7,54</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 10,68</t>
+          <t>-8,97; 10,58</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-46,07; -0,41</t>
+          <t>-4,27; 15,14</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-19,8; 40,4</t>
+          <t>-35,42; 22,76</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-19,59; 29,77</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-10,96; 57,78</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1367,37 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-7,08</t>
+          <t>5,05</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-2,62</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-16,49%</t>
+          <t>-6,92</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-6,21%</t>
+          <t>19,29%</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>-2,95%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>-20,66%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1410,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-16,89; 1,76</t>
+          <t>-5,7; 14,82</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 5,9</t>
+          <t>-9,14; 8,45</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-35,22; 4,95</t>
+          <t>-15,6; 3,73</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-24,02; 15,82</t>
+          <t>-18,35; 72,4</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-26,32; 36,2</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-40,08; 14,61</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1443,37 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>16,8</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>78,3%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1237,54 +1486,74 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>8,21; 25,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 7,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>28,45; 142,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-26,59; 35,96</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-3,16</t>
+          <t>-9,31</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>4,71</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-10,0%</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>20,54%</t>
+          <t>-26,37%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>6,23%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>-7,54%</t>
         </is>
       </c>
     </row>
@@ -1297,22 +1566,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-13,84; 7,9</t>
+          <t>-18,37; 0,05</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 13,51</t>
+          <t>-7,74; 10,59</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-37,78; 31,63</t>
+          <t>-11,34; 8,59</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 75,88</t>
+          <t>-46,02; -0,06</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-21,32; 39,52</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-33,07; 39,2</t>
         </is>
       </c>
     </row>
@@ -1320,27 +1599,37 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>8,26</t>
+          <t>-7,36</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>-3,29</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
+          <t>-6,97</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-3,01%</t>
+          <t>-16,89%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-7,72%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-16,25%</t>
         </is>
       </c>
     </row>
@@ -1353,22 +1642,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 19,64</t>
+          <t>-18,1; 2,23</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 8,28</t>
+          <t>-11,45; 6,1</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 62,77</t>
+          <t>-20,43; 3,04</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-22,19; 18,8</t>
+          <t>-37,37; 5,99</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-24,05; 16,67</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-40,06; 8,01</t>
         </is>
       </c>
     </row>
@@ -1376,27 +1675,37 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>-5,1</t>
+          <t>16,67</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-16,55%</t>
+          <t>9,24</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>-11,79%</t>
+          <t>78,89%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>5,16%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>34,24%</t>
         </is>
       </c>
     </row>
@@ -1409,54 +1718,70 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-16,16; 4,61</t>
+          <t>7,59; 25,15</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 5,22</t>
+          <t>-6,24; 9,71</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-42,86; 19,18</t>
+          <t>-0,84; 19,19</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-39,05; 23,96</t>
+          <t>28,67; 152,55</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-20,03; 44,7</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-2,62; 87,65</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>-2,84</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>5,24</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-9,53%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>26,13%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1469,50 +1794,74 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-18,99; 12,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 15,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-47,93; 61,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-21,34; 111,09</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-3,8</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>4,82</t>
+          <t>4,98</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-3,29%</t>
+          <t>-11,8</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>-11,91%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>21,63%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>-35,3%</t>
         </is>
       </c>
     </row>
@@ -1525,22 +1874,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-22,48; 15,67</t>
+          <t>-15,04; 7,52</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 18,98</t>
+          <t>-3,62; 14,37</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-40,1; 43,89</t>
+          <t>-23,75; -1,09</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-20,08; 54,53</t>
+          <t>-40,27; 30,03</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>-13,57; 71,89</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>-61,36; -3,36</t>
         </is>
       </c>
     </row>
@@ -1548,27 +1907,37 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>8,35</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>-10,05</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>7,58</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>-26,3%</t>
+          <t>22,39%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>-4,3%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>17,8%</t>
         </is>
       </c>
     </row>
@@ -1581,54 +1950,70 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 18,5</t>
+          <t>-3,7; 20,06</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-23,59; 5,88</t>
+          <t>-12,31; 8,6</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-24,73; 111,17</t>
+          <t>-6,41; 20,56</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-53,07; 25,21</t>
+          <t>-9,0; 64,71</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>-22,14; 19,05</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-13,55; 58,86</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>-3,55</t>
+          <t>-4,55</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>-2,83</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>-10,83%</t>
+          <t>4,22</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>-14,75%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>-10,47%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>17,56%</t>
         </is>
       </c>
     </row>
@@ -1641,22 +2026,32 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 0,89</t>
+          <t>-15,35; 6,59</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 4,93</t>
+          <t>-11,72; 6,21</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>-24,42; 2,84</t>
+          <t>-8,32; 15,43</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 19,35</t>
+          <t>-42,74; 25,94</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>-37,32; 27,44</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>-27,42; 85,79</t>
         </is>
       </c>
     </row>
@@ -1664,27 +2059,37 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>-0,7%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1697,50 +2102,74 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 5,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 5,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>-13,3; 15,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 14,02</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>3,84</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>5,53</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>6,83</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>-4,79%</t>
+          <t>-4,42%</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>27,18%</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>45,83%</t>
         </is>
       </c>
     </row>
@@ -1753,37 +2182,590 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 9,05</t>
+          <t>-15,91; 13,19</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 3,67</t>
+          <t>-3,8; 16,78</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 38,14</t>
+          <t>-6,1; 18,97</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>-17,59; 14,29</t>
+          <t>-41,2; 68,37</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>-14,68; 116,15</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>-29,76; 214,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>-2,67</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>5,38</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>-5,74</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>-5,91%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>12,92%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>-11,73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>-20,41; 11,45</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>-8,06; 18,58</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>-21,45; 11,09</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>-36,03; 30,83</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>-16,52; 55,83</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>-37,08; 28,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>3,99</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>-10,91</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>-1,09</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>15,94%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>-28,67%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>-3,01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>-7,74; 16,22</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>-23,67; 2,18</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>-17,6; 15,4</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>-24,41; 88,78</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>-53,6; 9,96</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>-39,19; 56,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>-3,6</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>-0,93</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>-10,94%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>0,7%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>-3,35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>-8,85; 1,64</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>-4,48; 4,32</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>-5,51; 4,51</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>-24,29; 5,77</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>-14,28; 17,01</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>-18,09; 18,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>-0,58</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>-1,43%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>2,35%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>-1,64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>-7,2; 4,49</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>-3,42; 6,13</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>-7,34; 5,02</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>-16,09; 11,83</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>-7,41; 15,5</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>-15,75; 13,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>4,18</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>-1,23</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>15,96%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>-4,43%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>5,36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>-0,55; 8,98</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>-5,61; 2,76</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>-4,39; 7,09</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>-1,74; 38,83</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>-17,95; 11,26</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>-12,73; 27,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
